--- a/NumNetModel/Analysis/stage3 analysis_withTags.xlsx
+++ b/NumNetModel/Analysis/stage3 analysis_withTags.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sabyasachibisoyi/Desktop/NLP/CSE-576-NR-2/NumNetModel/Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219E4F9D-7C18-134A-9F5D-174A012DB550}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC66AFA0-2C48-8D43-BAA7-6E18FAE0635D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{48538742-0A91-409D-9D9C-A3E6F6E4C42F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{48538742-0A91-409D-9D9C-A3E6F6E4C42F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="97">
   <si>
     <t>25db67c5657914454081c6a18e93d6dd</t>
   </si>
@@ -307,6 +307,36 @@
   </si>
   <si>
     <t>Accuracy 10.2</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>Basic Equation</t>
+  </si>
+  <si>
+    <t>Substraction+Division</t>
+  </si>
+  <si>
+    <t>Addition+Multiplication</t>
+  </si>
+  <si>
+    <t>Equation+substarction+division</t>
+  </si>
+  <si>
+    <t>Equation</t>
+  </si>
+  <si>
+    <t>Equation+Addition+Division</t>
+  </si>
+  <si>
+    <t>Addition+Division</t>
+  </si>
+  <si>
+    <t>Addition+Substarction</t>
+  </si>
+  <si>
+    <t>Substraction+Multiplication</t>
   </si>
 </sst>
 </file>
@@ -355,11 +385,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,8 +410,8 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{DE1C03D7-93E1-4ED6-A8FB-7D1A1082AD37}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="9" unboundColumnsRight="3">
-    <queryTableFields count="8">
+  <queryTableRefresh nextId="10" unboundColumnsRight="4">
+    <queryTableFields count="9">
       <queryTableField id="1" name="Name" tableColumnId="1"/>
       <queryTableField id="3" dataBound="0" tableColumnId="3"/>
       <queryTableField id="6" dataBound="0" tableColumnId="7"/>
@@ -389,15 +420,16 @@
       <queryTableField id="4" dataBound="0" tableColumnId="4"/>
       <queryTableField id="7" dataBound="0" tableColumnId="9"/>
       <queryTableField id="8" dataBound="0" tableColumnId="10"/>
+      <queryTableField id="9" dataBound="0" tableColumnId="5"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F1E9DEB4-D7B2-4061-914F-55BB8E1A1373}" name="prediction_stage3_test" displayName="prediction_stage3_test" ref="A1:H43" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:H43" xr:uid="{181DB40C-54F4-4FCB-837F-526DEEFD814C}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F1E9DEB4-D7B2-4061-914F-55BB8E1A1373}" name="prediction_stage3_test" displayName="prediction_stage3_test" ref="A1:I43" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:I43" xr:uid="{181DB40C-54F4-4FCB-837F-526DEEFD814C}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{4F610485-662D-403F-8DA5-B1FD81F474DC}" uniqueName="1" name="query Id" queryTableFieldId="1"/>
     <tableColumn id="3" xr3:uid="{93CDFD78-BA9C-4907-B8DC-3E5E1D9524A1}" uniqueName="3" name="original value" queryTableFieldId="3"/>
     <tableColumn id="7" xr3:uid="{F34EC3C5-B71A-487E-912F-A816CBE341D1}" uniqueName="7" name="Prediction value " queryTableFieldId="6"/>
@@ -406,6 +438,7 @@
     <tableColumn id="4" xr3:uid="{8D892F9E-7715-46C1-8536-3E6BFBEED770}" uniqueName="4" name="Accuracy2" queryTableFieldId="4"/>
     <tableColumn id="9" xr3:uid="{A5B00E26-FF59-4772-8B22-22F0BB49F97D}" uniqueName="9" name="Prediction value(DROP) epoch3" queryTableFieldId="7"/>
     <tableColumn id="10" xr3:uid="{757EF732-7FD3-4D5C-9757-7D1723277DDF}" uniqueName="10" name="Accuracy3" queryTableFieldId="8"/>
+    <tableColumn id="5" xr3:uid="{34701CC7-3459-364F-818E-BCB8B27D4F10}" uniqueName="5" name="Tags" queryTableFieldId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -708,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D7CBF8-B73A-424D-81B2-DDFD47E0CF00}">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -726,7 +759,7 @@
     <col min="8" max="8" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -751,8 +784,11 @@
       <c r="H1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -769,8 +805,11 @@
       <c r="G2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -786,8 +825,11 @@
       <c r="G3">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -803,8 +845,11 @@
       <c r="G4">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -826,8 +871,11 @@
       <c r="H5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -846,8 +894,11 @@
       <c r="G6">
         <v>64</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -863,8 +914,11 @@
       <c r="G7" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -880,8 +934,11 @@
       <c r="G8" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -897,8 +954,11 @@
       <c r="G9">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -914,8 +974,11 @@
       <c r="G10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -931,8 +994,11 @@
       <c r="G11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -948,8 +1014,11 @@
       <c r="G12">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -965,8 +1034,11 @@
       <c r="G13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -988,8 +1060,11 @@
       <c r="H14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1005,8 +1080,11 @@
       <c r="G15" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1022,8 +1100,11 @@
       <c r="G16">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -1045,8 +1126,11 @@
       <c r="H17" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -1062,8 +1146,11 @@
       <c r="G18">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -1079,9 +1166,12 @@
       <c r="G19">
         <v>80</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="I19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B20">
@@ -1096,8 +1186,11 @@
       <c r="G20" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -1113,8 +1206,11 @@
       <c r="G21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1130,8 +1226,11 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1147,8 +1246,11 @@
       <c r="G23">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1164,8 +1266,11 @@
       <c r="G24">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -1181,8 +1286,11 @@
       <c r="G25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -1198,8 +1306,11 @@
       <c r="G26">
         <v>6667</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -1221,8 +1332,11 @@
       <c r="H27" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -1238,8 +1352,11 @@
       <c r="G28">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -1255,8 +1372,11 @@
       <c r="G29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -1272,8 +1392,11 @@
       <c r="G30">
         <v>177</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -1289,8 +1412,11 @@
       <c r="G31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -1306,8 +1432,11 @@
       <c r="G32">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -1323,8 +1452,11 @@
       <c r="G33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -1340,8 +1472,11 @@
       <c r="G34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -1363,8 +1498,11 @@
       <c r="H35" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -1380,8 +1518,11 @@
       <c r="G36">
         <v>25</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -1400,8 +1541,11 @@
       <c r="G37">
         <v>50</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I37" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -1417,8 +1561,11 @@
       <c r="G38">
         <v>40</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -1434,8 +1581,11 @@
       <c r="G39">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I39" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -1451,8 +1601,11 @@
       <c r="G40">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D42" t="s">
         <v>84</v>
       </c>
